--- a/TD2 Triger/Classeur1.xlsx
+++ b/TD2 Triger/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Documents\Github\SQL\TD2 Triger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FE8BB6-0980-4C98-9F76-56697D1248CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E32F74-9A67-4AD0-AD03-197C7F321A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="252" windowWidth="23256" windowHeight="12816" xr2:uid="{02A4305E-7074-4E3C-87CE-AC9984B785F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>Nom Trigger</t>
   </si>
@@ -84,6 +84,45 @@
   </si>
   <si>
     <t>projet</t>
+  </si>
+  <si>
+    <t>check_duree_insert</t>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travail </t>
+  </si>
+  <si>
+    <t>check_duree_update</t>
+  </si>
+  <si>
+    <t>travail</t>
+  </si>
+  <si>
+    <t>check_hebdo_update</t>
+  </si>
+  <si>
+    <t>before &amp; after</t>
+  </si>
+  <si>
+    <t>check_responsable_projets</t>
+  </si>
+  <si>
+    <t>insert &amp; update</t>
+  </si>
+  <si>
+    <t>check_service_projets</t>
+  </si>
+  <si>
+    <t>concerne</t>
+  </si>
+  <si>
+    <t>check_chef_salaire</t>
+  </si>
+  <si>
+    <t>alerte_salaire</t>
   </si>
 </sst>
 </file>
@@ -146,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -154,13 +193,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A34774E-AE3F-402C-B953-59F129AEE0E0}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.8" customHeight="1"/>
@@ -531,16 +567,16 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -592,6 +628,125 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22.8" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.8" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22.8" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22.8" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22.8" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.8" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22.8" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
